--- a/Data/EC/NIT-9017819120.xlsx
+++ b/Data/EC/NIT-9017819120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80E6D21-00B6-4BB4-8474-761B17D9C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6E1996-E27C-4F82-B725-BA1EA4CD8F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5705116-F164-4DCC-8C4A-3576E5121BBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3B91BDA-1C45-40AD-82A0-CFB0338F0CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,46 +65,43 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7920637</t>
+  </si>
+  <si>
+    <t>ROLANDO PEREZ HERRERA</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>1047389355</t>
   </si>
   <si>
     <t>DEIVI JOSE TORRES PEDROZA</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
     <t>1007120657</t>
   </si>
   <si>
     <t>COBY BRAYAN MAURY RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>7920637</t>
-  </si>
-  <si>
-    <t>ROLANDO PEREZ HERRERA</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04E92E2-3A49-38B5-5E59-824A4E4C7690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A76414-B428-F007-26F7-4D851C9C78FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B496180B-3CD6-460A-8751-44A3D16F9967}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C7FE4-8105-4C68-9FFE-77B7945EDED0}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -894,7 +891,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +936,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +968,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1215064</v>
+        <v>1064266</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +984,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1061,16 +1058,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>34666</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1084,16 +1081,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1107,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1136,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1153,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1176,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>46800</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1199,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1222,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1245,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1268,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1291,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1314,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1337,16 +1334,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>46800</v>
       </c>
       <c r="G29" s="18">
         <v>1300000</v>
@@ -1360,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1383,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1406,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1429,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1452,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1475,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1494,125 +1491,56 @@
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="18">
-        <v>50266</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="18">
-        <v>50266</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="24">
-        <v>50266</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
+      <c r="E36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="24">
+        <v>34666</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
